--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/ModifyPayPwd.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/ModifyPayPwd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="5720" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,9 +109,31 @@
     <t>testcaseDescription</t>
   </si>
   <si>
-    <t>设置支付密码</t>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPayPwd</t>
+  </si>
+  <si>
+    <t>secondPayPwd</t>
+  </si>
+  <si>
+    <t>it78912345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it78912345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改支付密码</t>
     <rPh sb="0" eb="1">
-      <t>she'zh</t>
+      <t>xiu'g</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhi'fu</t>
@@ -122,25 +144,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${MobileUtil.getUnRegisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${EnvUtils.getEnv()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newPayPwd</t>
-  </si>
-  <si>
-    <t>secondPayPwd</t>
-  </si>
-  <si>
-    <t>it78912345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it78912345</t>
+    <t>修改支付密码</t>
+    <rPh sb="0" eb="1">
+      <t>xou'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi'm</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,10 +557,10 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -561,16 +574,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -588,10 +601,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
